--- a/InputData/trans/EoFoNVFE/Effect of Feebate on New Veh Fuel Econ.xlsx
+++ b/InputData/trans/EoFoNVFE/Effect of Feebate on New Veh Fuel Econ.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\EoFoNVFE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamho\Dropbox\Energy Innovation\InputData_RevisionRequest\trans\EoFoNVFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D4CC21-B625-4A9E-8630-9FED570EF2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="25875" windowHeight="11310"/>
+    <workbookView xWindow="13700" yWindow="730" windowWidth="19800" windowHeight="17010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="EoFoNVFE" sheetId="3" r:id="rId3"/>
+    <sheet name="EoFoNVFE" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>EoFoNVFE Effect of Feebate on New Veh Fuel Economy</t>
   </si>
@@ -29,129 +29,37 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>Feebates, rebates and gas-guzzler taxes: a study of incentives for increased fuel economy.</t>
-  </si>
-  <si>
-    <t>Energy Policy, 33(6), 757-775.</t>
-  </si>
-  <si>
-    <t>http://cta.ornl.gov/cta/Publications/Reports/FeebateEnergyPolicy_FINAL.pdf</t>
-  </si>
-  <si>
-    <t>Greene, D. L., Patterson, P. D., Singh, M., &amp; Li, J.</t>
-  </si>
-  <si>
-    <t>Feebate Amount</t>
-  </si>
-  <si>
-    <t>per Unit</t>
-  </si>
-  <si>
-    <t>Resulting Increase in Fuel Econ</t>
-  </si>
-  <si>
-    <t>percent</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Feebate Rate</t>
-  </si>
-  <si>
-    <t>hundredth gal/mile (0.01 gal/mile)</t>
-  </si>
-  <si>
-    <t>Page 761, Section 3, Paragrah 1 and Page 771, Section A.2, Paragraph 2</t>
-  </si>
-  <si>
     <t>New Vehicle Fuel Econ</t>
   </si>
   <si>
-    <t>Note:</t>
-  </si>
-  <si>
-    <t>See "cpi.xlsx" in the InputData folder for source information.</t>
-  </si>
-  <si>
-    <t>We adjust 2000 dollars to 2012 dollars using the following conversion factor:</t>
-  </si>
-  <si>
-    <t>The source specifies that it uses 2000 $, for example, Page 762, Table 1A.</t>
-  </si>
-  <si>
-    <t>2000$</t>
-  </si>
-  <si>
-    <t>perc increase in fuel econ / 2000$</t>
-  </si>
-  <si>
-    <t>perc increase in fuel econ / 2012$</t>
-  </si>
-  <si>
-    <t>Since the feebate is natively expressed in unusual units (dollars per (hundredth gallon per mile)), we</t>
-  </si>
-  <si>
-    <t>cause the lever in the EPS to represent the fraction of the best practice feebate rate, to improve</t>
-  </si>
-  <si>
-    <t>model usability for users.</t>
-  </si>
-  <si>
-    <t>Currency Year</t>
-  </si>
-  <si>
-    <t>Best Practice Feebate Rate</t>
-  </si>
-  <si>
-    <t>2012$ / (hundredth gal/mile)</t>
-  </si>
-  <si>
-    <t>Feebate at Full Policy Implementation</t>
-  </si>
-  <si>
-    <t>perc increase in fuel econ at full policy implementation</t>
-  </si>
-  <si>
-    <t>Effect of Feebate on Fuel Economy</t>
-  </si>
-  <si>
-    <t>Best Practices for Feebate Program Design and Implementation</t>
-  </si>
-  <si>
-    <t>http://www.theicct.org/sites/default/files/publications/ICCT_feebates_may2010.pdf</t>
-  </si>
-  <si>
-    <t>Table 2</t>
-  </si>
-  <si>
-    <t>John German and Dan Meszler, ICCT</t>
-  </si>
-  <si>
-    <t>This rate is from Germany.</t>
+    <t>Effect of Feebate (dimensionless)</t>
+  </si>
+  <si>
+    <t>no data</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>Effect of Feebate (dimensionless)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">In South Korea, there is no subsidies or tax benefits for fuel-efficient vehicles. </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>We set all values to be 0.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -159,15 +67,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -175,14 +75,14 @@
       <b/>
       <sz val="12"/>
       <color theme="4"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -190,23 +90,24 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -254,64 +155,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="4"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6"/>
-    <cellStyle name="Table title" xfId="2"/>
+  <cellStyles count="7">
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Parent row" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Table title" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -327,7 +210,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -402,6 +285,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -437,6 +337,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,303 +529,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="84.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="84.58203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>24</v>
-      </c>
+    <row r="11" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="19" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>25</v>
-      </c>
+    <row r="20" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="3"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>26</v>
-      </c>
+    <row r="21" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+    <row r="22" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="3"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>27</v>
-      </c>
+    <row r="23" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="5"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>20</v>
-      </c>
+    <row r="24" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>1.335</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>18</v>
-      </c>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-  </hyperlinks>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.85546875" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3">
-        <v>500</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <f>B4/B2</f>
-        <v>3.2000000000000003E-4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="8">
-        <f>B6/About!A26</f>
-        <v>2.3970037453183523E-4</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9">
-        <v>2000</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11">
-        <f>B7*B9</f>
-        <v>0.47940074906367047</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="17.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <f>Data!B11</f>
-        <v>0.47940074906367047</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>